--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\祐史\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\祐史\Documents\SandBoxie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,15 +2200,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI55"/>
+  <dimension ref="A1:BJ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AX22" sqref="AX22"/>
+      <selection activeCell="BP12" sqref="BP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2386,8 +2389,9 @@
       <c r="BI1">
         <v>60</v>
       </c>
+      <c r="BJ1" s="3"/>
     </row>
-    <row r="2" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2408,8 +2412,9 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AO2" s="6"/>
+      <c r="BJ2" s="3"/>
     </row>
-    <row r="3" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2418,8 +2423,9 @@
       <c r="U3" s="6"/>
       <c r="AO3" s="6"/>
       <c r="AS3" s="1"/>
+      <c r="BJ3" s="3"/>
     </row>
-    <row r="4" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2428,8 +2434,9 @@
       <c r="U4" s="6"/>
       <c r="AO4" s="6"/>
       <c r="AV4" s="1"/>
+      <c r="BJ4" s="3"/>
     </row>
-    <row r="5" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2441,8 +2448,9 @@
       <c r="AL5" s="1"/>
       <c r="AO5" s="6"/>
       <c r="AQ5" s="1"/>
+      <c r="BJ5" s="3"/>
     </row>
-    <row r="6" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2454,8 +2462,9 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="6"/>
       <c r="AT6" s="1"/>
+      <c r="BJ6" s="3"/>
     </row>
-    <row r="7" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2468,8 +2477,9 @@
       <c r="AK7" s="1"/>
       <c r="AO7" s="6"/>
       <c r="AW7" s="1"/>
+      <c r="BJ7" s="3"/>
     </row>
-    <row r="8" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2484,8 +2494,9 @@
       <c r="AF8" s="4"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="4"/>
+      <c r="BJ8" s="3"/>
     </row>
-    <row r="9" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2510,8 +2521,9 @@
       <c r="AO9" s="6"/>
       <c r="AT9" s="1"/>
       <c r="AY9" s="1"/>
+      <c r="BJ9" s="3"/>
     </row>
-    <row r="10" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2535,8 +2547,9 @@
       <c r="AO10" s="6"/>
       <c r="AR10" s="1"/>
       <c r="BA10" s="1"/>
+      <c r="BJ10" s="3"/>
     </row>
-    <row r="11" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2557,8 +2570,9 @@
       <c r="AW11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
+      <c r="BJ11" s="3"/>
     </row>
-    <row r="12" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2582,8 +2596,9 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
+      <c r="BJ12" s="3"/>
     </row>
-    <row r="13" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2614,8 +2629,9 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
+      <c r="BJ13" s="3"/>
     </row>
-    <row r="14" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2649,8 +2665,9 @@
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
+      <c r="BJ14" s="3"/>
     </row>
-    <row r="15" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2695,9 +2712,10 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="3"/>
     </row>
-    <row r="16" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2745,7 +2763,8 @@
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="3"/>
     </row>
     <row r="17" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -203,6 +203,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -211,9 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,71 +1239,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>46682</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>159780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>231911</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>274984</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="直角三角形 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17763182" y="3112530"/>
-          <a:ext cx="185229" cy="410479"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>60</xdr:col>
       <xdr:colOff>48121</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
@@ -1318,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17764621" y="3552825"/>
-          <a:ext cx="45719" cy="588065"/>
+          <a:off x="17938556" y="3901109"/>
+          <a:ext cx="45719" cy="280366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,6 +1870,122 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="直角三角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17948413" y="3793435"/>
+          <a:ext cx="115957" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>258535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円/楕円 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653142" y="3959678"/>
+          <a:ext cx="244929" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2202,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BP12" sqref="BP12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2712,7 +2766,7 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
-      <c r="BI15" s="12"/>
+      <c r="BI15" s="9"/>
       <c r="BJ15" s="3"/>
     </row>
     <row r="16" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2763,79 +2817,79 @@
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
-      <c r="BI16" s="12"/>
+      <c r="BI16" s="9"/>
       <c r="BJ16" s="3"/>
     </row>
     <row r="17" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="9">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="10">
         <v>2</v>
       </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="9">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="10">
         <v>3</v>
       </c>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="12"/>
     </row>
     <row r="18" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -2859,28 +2913,28 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\祐史\Documents\SandBoxie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITEM\Dcument\WORK_SPACE\UnrealEngine\Git_Proen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>:　隠しアイテム</t>
     <rPh sb="2" eb="3">
@@ -40,12 +40,24 @@
     <t>：プレイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TestStage1-1_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestStage1-2_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestStage1-3_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +81,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,6 +232,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2824,72 +2852,72 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="10">
-        <v>2</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="10">
+      <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="15"/>
     </row>
     <row r="18" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -225,6 +225,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,15 +241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2852,72 +2852,72 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="13" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="13" t="s">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="15"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="12"/>
     </row>
     <row r="18" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -2941,28 +2941,28 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="10">
+      <c r="B55" s="13">
         <v>1</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>:　隠しアイテム</t>
     <rPh sb="2" eb="3">
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>：プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>: プレイヤースタート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1305,15 +1309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>46682</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83580</xdr:rowOff>
+      <xdr:colOff>83318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>285749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>231911</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>198784</xdr:rowOff>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1322,8 +1326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17937117" y="3661667"/>
-          <a:ext cx="185229" cy="413378"/>
+          <a:off x="2134856" y="8198826"/>
+          <a:ext cx="107184" cy="132842"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -1367,15 +1371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57646</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>207065</xdr:rowOff>
+      <xdr:colOff>72300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>103365</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:colOff>118019</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>278422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1384,8 +1388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17948081" y="4083326"/>
-          <a:ext cx="45719" cy="704022"/>
+          <a:off x="2123838" y="8339949"/>
+          <a:ext cx="45719" cy="144627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,6 +1960,60 @@
         <a:xfrm>
           <a:off x="653142" y="3959678"/>
           <a:ext cx="244929" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43963</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256444</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>263769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="円/楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095501" y="7378211"/>
+          <a:ext cx="212481" cy="212481"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2256,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2499,9 +2557,9 @@
       <c r="U5" s="6"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="4"/>
-      <c r="AL5" s="1"/>
+      <c r="AN5" s="1"/>
       <c r="AO5" s="6"/>
-      <c r="AQ5" s="1"/>
+      <c r="AP5" s="1"/>
       <c r="BJ5" s="3"/>
     </row>
     <row r="6" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2513,7 +2571,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="6"/>
       <c r="AH6" s="1"/>
-      <c r="AN6" s="1"/>
+      <c r="AL6" s="1"/>
       <c r="AO6" s="6"/>
       <c r="AT6" s="1"/>
       <c r="BJ6" s="3"/>
@@ -2528,7 +2586,6 @@
       <c r="T7" s="2"/>
       <c r="U7" s="6"/>
       <c r="AE7" s="4"/>
-      <c r="AK7" s="1"/>
       <c r="AO7" s="6"/>
       <c r="AW7" s="1"/>
       <c r="BJ7" s="3"/>
@@ -2546,6 +2603,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
+      <c r="AK8" s="1"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="4"/>
       <c r="BJ8" s="3"/>
@@ -2572,6 +2630,7 @@
       <c r="AF9" s="4"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
+      <c r="AM9" s="1"/>
       <c r="AO9" s="6"/>
       <c r="AT9" s="1"/>
       <c r="AY9" s="1"/>
@@ -2597,7 +2656,6 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AL10" s="1"/>
       <c r="AO10" s="6"/>
       <c r="AR10" s="1"/>
       <c r="BA10" s="1"/>
@@ -2907,8 +2965,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I29" t="s">
+    <row r="26" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\祐史\Documents\SandBoxie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st081406\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>:　隠しアイテム</t>
     <rPh sb="2" eb="3">
@@ -44,12 +44,24 @@
     <t>: プレイヤースタート</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TestStage1-3_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestStage1-1_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestStage1-2_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +85,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -179,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +236,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2314,9 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2882,72 +2908,72 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="10">
-        <v>2</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="10">
-        <v>3</v>
-      </c>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="15"/>
     </row>
     <row r="18" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -2315,7 +2315,7 @@
   <dimension ref="A1:BJ55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="BA5" sqref="BA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2544,6 +2544,7 @@
       <c r="B4" s="3"/>
       <c r="T4" s="2"/>
       <c r="U4" s="6"/>
+      <c r="AH4" s="1"/>
       <c r="AO4" s="6"/>
       <c r="AV4" s="1"/>
       <c r="BJ4" s="3"/>
@@ -2556,7 +2557,6 @@
       <c r="T5" s="2"/>
       <c r="U5" s="6"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="4"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="1"/>

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\祐史\Documents\SandBoxie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITEM\Dcument\WORK_SPACE\UnrealEngine\Git_Proen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>:　隠しアイテム</t>
     <rPh sb="2" eb="3">
@@ -44,12 +44,24 @@
     <t>: プレイヤースタート</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TestStage1-1_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestStage1-2_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestStage1-3_2DMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +85,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -179,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +236,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2314,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA5" sqref="BA5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:BI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2882,72 +2910,72 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="10">
-        <v>2</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="10">
-        <v>3</v>
-      </c>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="15"/>
     </row>
     <row r="18" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">

--- a/tutorial_map(加工前).xlsx
+++ b/tutorial_map(加工前).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITEM\Dcument\WORK_SPACE\UnrealEngine\Git_Proen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\祐史\Documents\SandBoxie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,13 +192,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,9 +249,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -226,8 +258,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,14 +282,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -270,13 +317,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>68037</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>68034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>258537</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>258534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -325,15 +372,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>47982</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>54431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>238482</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>244931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -382,370 +429,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>290768</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>295775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>290764</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>290762</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="直角三角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8575009" y="1772153"/>
-          <a:ext cx="290763" cy="295772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>297433</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>297432</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297431</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="直角三角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6857259" y="2684305"/>
-          <a:ext cx="298173" cy="296691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>298173</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>296691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="直角三角形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7156174" y="2981739"/>
-          <a:ext cx="298173" cy="296691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>298173</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>296691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="直角三角形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7454348" y="3279913"/>
-          <a:ext cx="298173" cy="296691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>296691</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>298173</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="直角三角形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8348129" y="3578828"/>
-          <a:ext cx="298173" cy="296691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>5013</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>5012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>293159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -806,348 +498,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>741</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>286227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>6079</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>286226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="直角三角形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7869940" y="3197086"/>
-          <a:ext cx="291352" cy="296691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>741</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>286227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>6079</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>286226</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="直角三角形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8161293" y="2905733"/>
-          <a:ext cx="291352" cy="296691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>290763</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>290173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1216</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="直角三角形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8275983" y="2065572"/>
-          <a:ext cx="302596" cy="301114"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9153525" y="1181100"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>5254</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>298173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>296604</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="直角三角形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9248645" y="1789043"/>
-          <a:ext cx="293270" cy="296604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>46627</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>268532</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>277603</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1157,11 +519,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
+                <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:artisticMosiaicBubbles/>
                   </a14:imgEffect>
@@ -1180,7 +542,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3546231" y="2637692"/>
+          <a:off x="3579536" y="3255818"/>
           <a:ext cx="239224" cy="277603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1213,16 +575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>54619</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>49957</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106574</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>245119</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>239125</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2665</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>221806</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1231,7 +593,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2106157" y="6790726"/>
+          <a:off x="2167438" y="7687274"/>
           <a:ext cx="190500" cy="189168"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1270,15 +632,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>48121</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>93840</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1288,8 +650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17938556" y="3901109"/>
-          <a:ext cx="45719" cy="280366"/>
+          <a:off x="20105050" y="6311348"/>
+          <a:ext cx="45719" cy="281549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,15 +698,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>83318</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>125514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1398,15 +760,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>72300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>118019</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>278422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1464,15 +826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>294454</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>297788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1526,15 +888,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>294454</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>297788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1588,15 +950,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>294454</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>297788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1650,15 +1012,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>294454</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>297788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1712,15 +1074,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>294454</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>297788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1774,15 +1136,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>49290</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>49290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>239790</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>239790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1831,16 +1193,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>239224</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>277603</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5428</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1850,11 +1212,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
+                <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:artisticMosiaicBubbles/>
                   </a14:imgEffect>
@@ -1873,7 +1235,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2060864" y="6182591"/>
+          <a:off x="2112818" y="6234545"/>
           <a:ext cx="239224" cy="277603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1906,15 +1268,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>215348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>107675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1970,13 +1332,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>258535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2022,15 +1384,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>43963</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>256444</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>263769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2046,6 +1408,1940 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>865</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="直角三角形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5946107" y="4162860"/>
+          <a:ext cx="293033" cy="298042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>336</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="直角三角形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6240780" y="4461510"/>
+          <a:ext cx="297180" cy="293706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>866</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="直角三角形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6839034" y="4461430"/>
+          <a:ext cx="290262" cy="298042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>293726</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>292479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="直角三角形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9131636" y="4125435"/>
+          <a:ext cx="288147" cy="289396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>293726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>292477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="直角三角形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8837227" y="4419842"/>
+          <a:ext cx="288147" cy="289396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>289505</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>292840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="直角三角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7949045" y="3238500"/>
+          <a:ext cx="289505" cy="292840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>289505</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>292840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="直角三角形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360227" y="3532909"/>
+          <a:ext cx="289505" cy="292840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>289505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>292840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="直角三角形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7654636" y="3827318"/>
+          <a:ext cx="289505" cy="292840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>289505</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>292840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="直角三角形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7949045" y="4121727"/>
+          <a:ext cx="289505" cy="292840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2963</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292359</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>293614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="直角三角形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9719087" y="3537752"/>
+          <a:ext cx="288147" cy="289396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="直角三角形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6576140" y="4289980"/>
+          <a:ext cx="278832" cy="286612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>866</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="直角三角形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6541854" y="3569890"/>
+          <a:ext cx="290262" cy="298042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>862</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="直角三角形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7069708" y="2948861"/>
+          <a:ext cx="287491" cy="295271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>293438</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="直角三角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7995195" y="3847732"/>
+          <a:ext cx="289038" cy="296817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>3720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>292758</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="直角三角形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8247175" y="4123219"/>
+          <a:ext cx="289038" cy="295271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>294382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>7963</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>287644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="直角三角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8884191" y="4135673"/>
+          <a:ext cx="289038" cy="296639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3573</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>4435</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>291668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="直角三角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9176439" y="3843922"/>
+          <a:ext cx="289038" cy="296638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="127">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>862</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>288858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="直角三角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8581403" y="2953873"/>
+          <a:ext cx="288858" cy="296638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>295776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>861</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>288858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="直角三角形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8877179" y="2658097"/>
+          <a:ext cx="288858" cy="296638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>295787</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>296994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>721</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>297856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="直角三角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9241004" y="3576907"/>
+          <a:ext cx="301282" cy="299036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>295776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>861</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>288858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="直角三角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11539166" y="2953873"/>
+          <a:ext cx="288858" cy="296638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>288858</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="直角三角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734261" y="1192696"/>
+          <a:ext cx="288858" cy="299036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>288858</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="直角三角形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10436087" y="596348"/>
+          <a:ext cx="288858" cy="299036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>4443</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>288858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="直角三角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12281114" y="2686743"/>
+          <a:ext cx="288858" cy="303800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>288858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="直角三角形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12580473" y="2088029"/>
+          <a:ext cx="288858" cy="303800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>298173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>288858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="直角三角形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11926957" y="1789043"/>
+          <a:ext cx="288858" cy="299036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>293903</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>288858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="直角三角形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11190068" y="1175113"/>
+          <a:ext cx="288858" cy="293903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>294454</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>297788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="直角三角形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17592261" y="4770783"/>
+          <a:ext cx="294454" cy="297788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2340,15 +3636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ55"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:BI17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2529,510 +3825,717 @@
       <c r="BI1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3"/>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AO2" s="6"/>
-      <c r="BJ2" s="3"/>
+      <c r="X2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="BP2" s="8"/>
     </row>
-    <row r="3" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AS3" s="1"/>
-      <c r="BJ3" s="3"/>
+      <c r="X3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="BP3" s="8"/>
     </row>
-    <row r="4" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="6"/>
-      <c r="AH4" s="1"/>
-      <c r="AO4" s="6"/>
-      <c r="AV4" s="1"/>
-      <c r="BJ4" s="3"/>
+      <c r="X4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="BP4" s="8"/>
     </row>
-    <row r="5" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="6"/>
-      <c r="AH5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="1"/>
-      <c r="BJ5" s="3"/>
+      <c r="X5" s="8"/>
+      <c r="AO5" s="1"/>
+      <c r="AT5" s="8"/>
+      <c r="BP5" s="8"/>
     </row>
-    <row r="6" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="G6" s="7"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="6"/>
-      <c r="AH6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AO6" s="6"/>
-      <c r="AT6" s="1"/>
-      <c r="BJ6" s="3"/>
+      <c r="X6" s="8"/>
+      <c r="AP6" s="19"/>
+      <c r="AR6" s="1"/>
+      <c r="AT6" s="8"/>
+      <c r="AX6" s="1"/>
+      <c r="BP6" s="8"/>
     </row>
-    <row r="7" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="6"/>
-      <c r="AE7" s="4"/>
-      <c r="AO7" s="6"/>
-      <c r="AW7" s="1"/>
-      <c r="BJ7" s="3"/>
+      <c r="X7" s="8"/>
+      <c r="AP7" s="1"/>
+      <c r="AT7" s="9"/>
+      <c r="AV7" s="1"/>
+      <c r="BP7" s="8"/>
     </row>
-    <row r="8" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="6"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
+      <c r="X8" s="8"/>
       <c r="AK8" s="1"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="4"/>
-      <c r="BJ8" s="3"/>
+      <c r="AT8" s="1"/>
+      <c r="BP8" s="8"/>
     </row>
-    <row r="9" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="6"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AO9" s="6"/>
-      <c r="AT9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="BJ9" s="3"/>
+      <c r="X9" s="8"/>
+      <c r="AK9" s="1"/>
+      <c r="AT9" s="18"/>
+      <c r="AZ9" s="1"/>
+      <c r="BP9" s="8"/>
     </row>
-    <row r="10" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="G10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="6"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AO10" s="6"/>
-      <c r="AR10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BJ10" s="3"/>
+      <c r="X10" s="8"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AP10" s="19"/>
+      <c r="AT10" s="8"/>
+      <c r="BP10" s="8"/>
     </row>
-    <row r="11" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AO11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BJ11" s="3"/>
+      <c r="X11" s="8"/>
+      <c r="AK11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AT11" s="8"/>
+      <c r="AX11" s="1"/>
+      <c r="BP11" s="8"/>
     </row>
-    <row r="12" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AO12" s="6"/>
-      <c r="AU12" s="1"/>
-      <c r="BA12" s="1"/>
+      <c r="X12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AZ12" s="1"/>
       <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BJ12" s="3"/>
+      <c r="BP12" s="8"/>
     </row>
-    <row r="13" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="1"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AM13" s="1"/>
-      <c r="AO13" s="6"/>
-      <c r="AR13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
+      <c r="X13" s="8"/>
+      <c r="AG13" s="1"/>
+      <c r="AP13" s="19"/>
+      <c r="AT13" s="8"/>
       <c r="BD13" s="1"/>
-      <c r="BJ13" s="3"/>
+      <c r="BF13" s="1"/>
+      <c r="BP13" s="8"/>
     </row>
-    <row r="14" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="AC14" s="4"/>
+      <c r="X14" s="8"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="4"/>
-      <c r="AO14" s="6"/>
-      <c r="AW14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BJ14" s="3"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AP14" s="19"/>
+      <c r="AT14" s="8"/>
+      <c r="BP14" s="8"/>
     </row>
-    <row r="15" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="X15" s="8"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="4"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="9"/>
-      <c r="BJ15" s="3"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="1"/>
+      <c r="AT15" s="8"/>
+      <c r="BP15" s="8"/>
     </row>
-    <row r="16" spans="1:62" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AO16" s="6"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AT16" s="8"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="9"/>
-      <c r="BJ16" s="3"/>
+      <c r="BP16" s="8"/>
     </row>
-    <row r="17" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="X17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AT17" s="8"/>
+      <c r="BG17" s="1"/>
+      <c r="BP17" s="8"/>
     </row>
-    <row r="18" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="J18" ph="1"/>
+      <c r="B18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="X18" s="18"/>
+      <c r="AD18" s="1"/>
+      <c r="AT18" s="8"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BP18" s="8"/>
     </row>
-    <row r="22" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I22" t="s">
+    <row r="19" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="5"/>
+      <c r="X19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BP19" s="8"/>
+    </row>
+    <row r="20" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="4"/>
+      <c r="Y20" s="1"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="4"/>
+      <c r="AT20" s="8"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BP20" s="8"/>
+    </row>
+    <row r="21" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AH21" s="4"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="4"/>
+      <c r="AT21" s="8"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BP21" s="8"/>
+    </row>
+    <row r="22" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="4"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="4"/>
+      <c r="AT22" s="8"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BP22" s="9"/>
+    </row>
+    <row r="23" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="4"/>
+      <c r="AT23" s="8"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+    </row>
+    <row r="24" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="4"/>
+      <c r="AT24" s="8"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+    </row>
+    <row r="25" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AT25" s="8"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+    </row>
+    <row r="26" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="17"/>
+      <c r="AT26" s="9"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+    </row>
+    <row r="27" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="11"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="11"/>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="11"/>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="12"/>
+    </row>
+    <row r="32" spans="1:68" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I24" t="s">
+    <row r="34" spans="6:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I26" t="s">
+    <row r="36" spans="6:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I28" t="s">
+    <row r="38" spans="6:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="10">
+      <c r="B55" s="13">
         <v>1</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B17:U17"/>
-    <mergeCell ref="V17:AO17"/>
-    <mergeCell ref="AP17:BI17"/>
+    <mergeCell ref="AU27:BP27"/>
+    <mergeCell ref="B27:X27"/>
     <mergeCell ref="B55:U55"/>
+    <mergeCell ref="Y27:AT27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
